--- a/Filament Weight Estimator.xlsx
+++ b/Filament Weight Estimator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\AAE 451\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{88CD93F7-4481-4E98-AE41-FEDE1C02E7FA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8CC3F25-DEB4-4D7F-B538-143C381D75D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>PLA used [mm]</t>
   </si>
@@ -293,6 +293,30 @@
   </si>
   <si>
     <t>Rudder</t>
+  </si>
+  <si>
+    <t>Propeller</t>
+  </si>
+  <si>
+    <t>Motor</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>Wires</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>Servos</t>
+  </si>
+  <si>
+    <t>Carbon fiber rods</t>
+  </si>
+  <si>
+    <t>glider</t>
   </si>
 </sst>
 </file>
@@ -394,10 +418,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -695,14 +719,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="D1" s="10" t="s">
+      <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="D1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="11"/>
       <c r="J1" s="9"/>
       <c r="K1" t="s">
         <v>5</v>
@@ -855,10 +879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE6E39D-572F-4407-92CC-F6C65E5F056B}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -871,22 +895,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>26</v>
       </c>
     </row>
@@ -910,7 +934,7 @@
       </c>
       <c r="G2">
         <f>SUM(E:E)</f>
-        <v>10.31111875</v>
+        <v>13.534318750000001</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -931,6 +955,10 @@
         <f>D3/1000</f>
         <v>1.4352762499999998</v>
       </c>
+      <c r="G3">
+        <f>SUM(E2:E25)</f>
+        <v>11.720318750000001</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -966,7 +994,7 @@
         <v>290.065</v>
       </c>
       <c r="E5">
-        <f t="shared" ref="E5:E13" si="0">D5/1000</f>
+        <f t="shared" ref="E5:E12" si="0">D5/1000</f>
         <v>0.29006500000000002</v>
       </c>
     </row>
@@ -1175,7 +1203,7 @@
         <v>858.97874999999999</v>
       </c>
       <c r="E16">
-        <f>(D16/1000)</f>
+        <f>D16/1000</f>
         <v>0.85897875000000001</v>
       </c>
     </row>
@@ -1215,6 +1243,100 @@
       <c r="E18">
         <f>(D18/1000)</f>
         <v>7.3551249999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19">
+        <v>46</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ref="E19:E25" si="1">(D19/1000)</f>
+        <v>4.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20">
+        <v>207</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0.20699999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21">
+        <v>106</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0.106</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22">
+        <v>100</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23">
+        <v>544</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24">
+        <f>57+57+57</f>
+        <v>171</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0.17100000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25">
+        <f>91+85.6+47.4+11.2</f>
+        <v>235.2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0.23519999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="E26">
+        <v>1.8140000000000001</v>
       </c>
     </row>
   </sheetData>
